--- a/2022_09_12_query/RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022.xlsx
+++ b/2022_09_12_query/RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N141"/>
+  <dimension ref="A1:N128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alber Quimica Industria e Comercio de Sanaeantes Eirelli-ME</t>
+          <t xml:space="preserve"> American Nutrients do Brasil Indústria e Comércio Ltda.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06740-0</t>
+          <t xml:space="preserve"> 3.05522-1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Klin White Max Alberquímica</t>
+          <t xml:space="preserve"> ECOTREX DRY</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -534,6 +534,46 @@
           <t xml:space="preserve"> ECOTREX DRY</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.060137/2021-05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.5522.0033.001-3</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ECOTREX DRY + BALDE + FILME DE POLIETILENO</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -564,7 +604,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5522.0033.001-3</t>
+          <t xml:space="preserve"> 3.5522.0033.002-1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -579,7 +619,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECOTREX DRY + BALDE + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> ECOTREX DRY + BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -627,7 +667,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5522.0033.002-1</t>
+          <t xml:space="preserve"> 3.5522.0033.003-1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -642,7 +682,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECOTREX DRY + BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> ECOTREX DRY + FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -670,17 +710,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> American Nutrients do Brasil Indústria e Comércio Ltda.</t>
+          <t xml:space="preserve"> BOM TOQUE INDUSTRIA QUIMICA LTDA.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05522-1</t>
+          <t xml:space="preserve"> 3.10226-4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECOTREX DRY</t>
+          <t xml:space="preserve"> LIMTEC BT310 DESINCRUSTANTE ALCALINO BAIXA ESPUMA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -690,7 +730,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5522.0033.003-1</t>
+          <t xml:space="preserve"> 3.5522.0033.004-8</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -705,7 +745,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECOTREX DRY + FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> ECOTREX DRY + SACO + ACONDICIONAMENTO NAO PREVISTO NA TABELA</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -733,27 +773,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> American Nutrients do Brasil Indústria e Comércio Ltda.</t>
+          <t xml:space="preserve"> BOM TOQUE INDUSTRIA QUIMICA LTDA.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05522-1</t>
+          <t xml:space="preserve"> 3.10226-4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECOTREX DRY</t>
+          <t xml:space="preserve"> LIMTEC BT310 DESINCRUSTANTE ALCALINO BAIXA ESPUMA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.060137/2021-05</t>
+          <t xml:space="preserve"> 25351.031177/2021-31</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5522.0033.004-8</t>
+          <t xml:space="preserve"> 3.0226.0013.001-8</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -768,17 +808,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECOTREX DRY + SACO + ACONDICIONAMENTO NAO PREVISTO NA TABELA</t>
+          <t xml:space="preserve"> LIMTEC BT310 DESINCRUSTANTE ALCALINO BAIXA ESPUMA + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -809,6 +849,46 @@
           <t xml:space="preserve"> LIMTEC BT310 DESINCRUSTANTE ALCALINO BAIXA ESPUMA</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.031177/2021-31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0226.0013.002-6</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LIMTEC BT310 DESINCRUSTANTE ALCALINO BAIXA ESPUMA + FRASCO DE PLÁSTICO TRANSLÚCIDO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -819,17 +899,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOM TOQUE INDUSTRIA QUIMICA LTDA.</t>
+          <t xml:space="preserve"> BOMBRIL S/A</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10226-4</t>
+          <t xml:space="preserve"> 3.00589-1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMTEC BT310 DESINCRUSTANTE ALCALINO BAIXA ESPUMA</t>
+          <t xml:space="preserve"> PINHO BRIL</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -839,7 +919,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0226.0013.001-8</t>
+          <t xml:space="preserve"> 3.0226.0013.003-4</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -854,7 +934,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMTEC BT310 DESINCRUSTANTE ALCALINO BAIXA ESPUMA + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> LIMTEC BT310 DESINCRUSTANTE ALCALINO BAIXA ESPUMA + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -882,57 +962,57 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOM TOQUE INDUSTRIA QUIMICA LTDA.</t>
+          <t xml:space="preserve"> BOMBRIL S/A</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10226-4</t>
+          <t xml:space="preserve"> 3.00589-1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMTEC BT310 DESINCRUSTANTE ALCALINO BAIXA ESPUMA</t>
+          <t xml:space="preserve"> PINHO BRIL</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.031177/2021-31</t>
+          <t xml:space="preserve"> 25351.020985/2003-91</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0226.0013.002-6</t>
+          <t xml:space="preserve"> 3.0589.0201.001-6</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 05/2028</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMTEC BT310 DESINCRUSTANTE ALCALINO BAIXA ESPUMA + FRASCO DE PLÁSTICO TRANSLÚCIDO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSPARENTE</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 02 Ano(s)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -945,57 +1025,57 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOM TOQUE INDUSTRIA QUIMICA LTDA.</t>
+          <t xml:space="preserve"> BOMBRIL S/A</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10226-4</t>
+          <t xml:space="preserve"> 3.00589-1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMTEC BT310 DESINCRUSTANTE ALCALINO BAIXA ESPUMA</t>
+          <t xml:space="preserve"> PINHO BRIL</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.031177/2021-31</t>
+          <t xml:space="preserve"> 25351.020985/2003-91</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0226.0013.003-4</t>
+          <t xml:space="preserve"> 3.0589.0201.002-4</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 05/2028</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMTEC BT310 DESINCRUSTANTE ALCALINO BAIXA ESPUMA + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSPARENTE</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 02 Ano(s)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -1021,6 +1101,46 @@
           <t xml:space="preserve"> PINHO BRIL</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.020985/2003-91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0589.0201.003-2</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 05/2028</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSPARENTE</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02 Ano(s)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1051,7 +1171,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0589.0201.001-6</t>
+          <t xml:space="preserve"> 3.0589.0201.005-9</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1066,7 +1186,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSPARENTE</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1114,7 +1234,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0589.0201.002-4</t>
+          <t xml:space="preserve"> 3.0589.0201.006-7</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1129,7 +1249,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSPARENTE</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1177,7 +1297,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0589.0201.003-2</t>
+          <t xml:space="preserve"> 3.0589.0201.007-5</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1192,7 +1312,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSPARENTE</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1240,7 +1360,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0589.0201.005-9</t>
+          <t xml:space="preserve"> 3.0589.0201.009-1</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1260,7 +1380,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02 Ano(s)</t>
+          <t xml:space="preserve"> 2 Ano(s)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1303,7 +1423,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0589.0201.006-7</t>
+          <t xml:space="preserve"> 3.0589.0201.012-1</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1318,12 +1438,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE</t>
+          <t xml:space="preserve"> FRASCO PLÁSTICO OPACO SQUEEZE + CAIXA DE PAPELÃO</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02 Ano(s)</t>
+          <t xml:space="preserve"> 2 Ano(s)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1333,7 +1453,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1486,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0589.0201.007-5</t>
+          <t xml:space="preserve"> 3.0589.0201.012-1</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1381,12 +1501,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE</t>
+          <t xml:space="preserve"> FRASCO PLÁSTICO OPACO SQUEEZE + CAIXA DE PAPELÃO</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02 Ano(s)</t>
+          <t xml:space="preserve"> 2 Ano(s)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1429,7 +1549,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0589.0201.009-1</t>
+          <t xml:space="preserve"> 3.0589.0201.013-1</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1444,7 +1564,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE</t>
+          <t xml:space="preserve"> FRASCO PLÁSTICO OPACO SQUEEZE + CAIXA DE PAPELÃO</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1459,7 +1579,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
         </is>
       </c>
     </row>
@@ -1492,7 +1612,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0589.0201.012-1</t>
+          <t xml:space="preserve"> 3.0589.0201.013-1</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1522,7 +1642,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1675,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0589.0201.012-1</t>
+          <t xml:space="preserve"> 3.0589.0201.014-8</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1585,7 +1705,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1738,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0589.0201.013-1</t>
+          <t xml:space="preserve"> 3.0589.0201.014-8</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1648,7 +1768,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1801,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0589.0201.013-1</t>
+          <t xml:space="preserve"> 3.0589.0201.015-6</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1711,7 +1831,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1864,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0589.0201.014-8</t>
+          <t xml:space="preserve"> 3.0589.0201.015-6</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1774,7 +1894,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1927,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0589.0201.014-8</t>
+          <t xml:space="preserve"> 3.0589.0201.016-4</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1837,7 +1957,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
         </is>
       </c>
     </row>
@@ -1870,7 +1990,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0589.0201.015-6</t>
+          <t xml:space="preserve"> 3.0589.0201.016-4</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1900,7 +2020,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -1933,7 +2053,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0589.0201.015-6</t>
+          <t xml:space="preserve"> 3.0589.0201.017-2</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1963,7 +2083,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
         </is>
       </c>
     </row>
@@ -1996,7 +2116,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0589.0201.016-4</t>
+          <t xml:space="preserve"> 3.0589.0201.017-2</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2026,7 +2146,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -2059,7 +2179,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0589.0201.016-4</t>
+          <t xml:space="preserve"> 3.0589.0201.018-0</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2089,7 +2209,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
         </is>
       </c>
     </row>
@@ -2102,17 +2222,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBRIL S/A</t>
+          <t xml:space="preserve"> BTA ADITIVOS LTDA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00589-1</t>
+          <t xml:space="preserve"> 3.04585-2</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PINHO BRIL</t>
+          <t xml:space="preserve"> ATOPUS VEG</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2122,7 +2242,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0589.0201.017-2</t>
+          <t xml:space="preserve"> 3.0589.0201.018-0</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2152,7 +2272,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -2165,57 +2285,57 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBRIL S/A</t>
+          <t xml:space="preserve"> BTA ADITIVOS LTDA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00589-1</t>
+          <t xml:space="preserve"> 3.04585-2</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PINHO BRIL</t>
+          <t xml:space="preserve"> ATOPUS VEG</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020985/2003-91</t>
+          <t xml:space="preserve"> 25351.568284/2021-11</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0589.0201.017-2</t>
+          <t xml:space="preserve"> 3.4585.0035.001-2</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05/2028</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO PLÁSTICO OPACO SQUEEZE + CAIXA DE PAPELÃO</t>
+          <t xml:space="preserve"> BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 Ano(s)</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3211062 DESINFETANTE PARA HORTIFRUTÍCOLAS</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -2228,57 +2348,57 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBRIL S/A</t>
+          <t xml:space="preserve"> FABRICA CORDEIRO LTDA EPP</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00589-1</t>
+          <t xml:space="preserve"> 3.02266-8</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PINHO BRIL</t>
+          <t xml:space="preserve"> DESINFETANTE BRANMIX</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020985/2003-91</t>
+          <t xml:space="preserve"> 25351.568284/2021-11</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0589.0201.018-0</t>
+          <t xml:space="preserve"> 3.4585.0035.002-0</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05/2028</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO PLÁSTICO OPACO SQUEEZE + CAIXA DE PAPELÃO</t>
+          <t xml:space="preserve"> TUBO DE PAPELÃO COM TAMPA E FUNDO METÁLICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 Ano(s)</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3211062 DESINFETANTE PARA HORTIFRUTÍCOLAS</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -2291,27 +2411,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBRIL S/A</t>
+          <t xml:space="preserve"> FABRICA CORDEIRO LTDA EPP</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00589-1</t>
+          <t xml:space="preserve"> 3.02266-8</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PINHO BRIL</t>
+          <t xml:space="preserve"> DESINFETANTE BRANMIX</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.020985/2003-91</t>
+          <t xml:space="preserve"> 25351.071487/2022-70</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0589.0201.018-0</t>
+          <t xml:space="preserve"> 3.2266.0011.001-2</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2321,17 +2441,17 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05/2028</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO PLÁSTICO OPACO SQUEEZE + CAIXA DE PAPELÃO</t>
+          <t xml:space="preserve"> DESINFETANTE PINHO BRANMIX + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 Ano(s)</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2341,7 +2461,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -2354,17 +2474,57 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BTA ADITIVOS LTDA</t>
+          <t xml:space="preserve"> FABRICA CORDEIRO LTDA EPP</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04585-2</t>
+          <t xml:space="preserve"> 3.02266-8</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ATOPUS VEG</t>
+          <t xml:space="preserve"> DESINFETANTE BRANMIX</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.071487/2022-70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2266.0011.002-0</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE EUCALIPTO BRANMIX + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -2377,32 +2537,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BTA ADITIVOS LTDA</t>
+          <t xml:space="preserve"> FABRICA CORDEIRO LTDA EPP</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04585-2</t>
+          <t xml:space="preserve"> 3.02266-8</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ATOPUS VEG</t>
+          <t xml:space="preserve"> DESINFETANTE BRANMIX</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.568284/2021-11</t>
+          <t xml:space="preserve"> 25351.071487/2022-70</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4585.0035.001-2</t>
+          <t xml:space="preserve"> 3.2266.0011.003-9</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2412,7 +2572,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> DESINFETANTE LAVANDA BRANMIX + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2422,7 +2582,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3211062 DESINFETANTE PARA HORTIFRUTÍCOLAS</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2440,32 +2600,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BTA ADITIVOS LTDA</t>
+          <t xml:space="preserve"> INTERFINA AGROQUIMICA LTDA-EPP</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04585-2</t>
+          <t xml:space="preserve"> 3.05685-4</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ATOPUS VEG</t>
+          <t xml:space="preserve"> TIAMOXAM 750 WG</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.568284/2021-11</t>
+          <t xml:space="preserve"> 25351.071487/2022-70</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4585.0035.002-0</t>
+          <t xml:space="preserve"> 3.2266.0011.004-7</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2475,7 +2635,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TUBO DE PAPELÃO COM TAMPA E FUNDO METÁLICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> DESINFETANTE FLORAL BRANMIX + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2485,7 +2645,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3211062 DESINFETANTE PARA HORTIFRUTÍCOLAS</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2503,17 +2663,57 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FABRICA CORDEIRO LTDA EPP</t>
+          <t xml:space="preserve"> INTERLANDIA LTDA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02266-8</t>
+          <t xml:space="preserve"> 3.01082-5</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE BRANMIX</t>
+          <t xml:space="preserve"> DESINFETANTE DRAGÃO</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.049225/2022-29</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.5685.0048.001-7</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SACO PLASTICO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3206025 INSETICIDA PARA EMPRESAS ESPECIALIZADAS</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -2526,27 +2726,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FABRICA CORDEIRO LTDA EPP</t>
+          <t xml:space="preserve"> INTERLANDIA LTDA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02266-8</t>
+          <t xml:space="preserve"> 3.01082-5</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE BRANMIX</t>
+          <t xml:space="preserve"> DESINFETANTE DRAGÃO</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.071487/2022-70</t>
+          <t xml:space="preserve"> 25351.111721/2012-32</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2266.0011.001-2</t>
+          <t xml:space="preserve"> 3.1082.0008.001-4</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2556,17 +2756,17 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 05/2027</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE PINHO BRANMIX + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2576,7 +2776,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -2589,27 +2789,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FABRICA CORDEIRO LTDA EPP</t>
+          <t xml:space="preserve"> INTERLANDIA LTDA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02266-8</t>
+          <t xml:space="preserve"> 3.01082-5</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE BRANMIX</t>
+          <t xml:space="preserve"> DESINFETANTE DRAGÃO</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.071487/2022-70</t>
+          <t xml:space="preserve"> 25351.111721/2012-32</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2266.0011.002-0</t>
+          <t xml:space="preserve"> 3.1082.0008.002-2</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2619,17 +2819,17 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 05/2027</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE EUCALIPTO BRANMIX + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2639,7 +2839,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -2652,27 +2852,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FABRICA CORDEIRO LTDA EPP</t>
+          <t xml:space="preserve"> INTERLANDIA LTDA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02266-8</t>
+          <t xml:space="preserve"> 3.01082-5</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE BRANMIX</t>
+          <t xml:space="preserve"> DESINFETANTE DRAGÃO</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.071487/2022-70</t>
+          <t xml:space="preserve"> 25351.111721/2012-32</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2266.0011.003-9</t>
+          <t xml:space="preserve"> 3.1082.0008.003-0</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2682,17 +2882,17 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 05/2027</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LAVANDA BRANMIX + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2702,7 +2902,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -2715,27 +2915,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FABRICA CORDEIRO LTDA EPP</t>
+          <t xml:space="preserve"> INTERLANDIA LTDA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02266-8</t>
+          <t xml:space="preserve"> 3.01082-5</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE BRANMIX</t>
+          <t xml:space="preserve"> DESINFETANTE DRAGÃO</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.071487/2022-70</t>
+          <t xml:space="preserve"> 25351.111721/2012-32</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2266.0011.004-7</t>
+          <t xml:space="preserve"> 3.1082.0008.004-9</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2745,17 +2945,17 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 05/2027</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE FLORAL BRANMIX + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2765,7 +2965,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -2778,17 +2978,57 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERFINA AGROQUIMICA LTDA-EPP</t>
+          <t xml:space="preserve"> INTERLANDIA LTDA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05685-4</t>
+          <t xml:space="preserve"> 3.01082-5</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TIAMOXAM 750 WG</t>
+          <t xml:space="preserve"> DESINFETANTE DRAGÃO</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.111721/2012-32</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1082.0008.005-7</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 05/2027</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -2801,57 +3041,57 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERFINA AGROQUIMICA LTDA-EPP</t>
+          <t xml:space="preserve"> INTERLANDIA LTDA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05685-4</t>
+          <t xml:space="preserve"> 3.01082-5</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TIAMOXAM 750 WG</t>
+          <t xml:space="preserve"> DESINFETANTE DRAGÃO</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049225/2022-29</t>
+          <t xml:space="preserve"> 25351.111721/2012-32</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5685.0048.001-7</t>
+          <t xml:space="preserve"> 3.1082.0008.006-5</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 05/2027</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SACO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3206025 INSETICIDA PARA EMPRESAS ESPECIALIZADAS</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -2877,6 +3117,46 @@
           <t xml:space="preserve"> DESINFETANTE DRAGÃO</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.111721/2012-32</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1082.0008.007-3</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 05/2027</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2907,7 +3187,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1082.0008.001-4</t>
+          <t xml:space="preserve"> 3.1082.0008.008-1</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2922,7 +3202,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2970,7 +3250,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1082.0008.002-2</t>
+          <t xml:space="preserve"> 3.1082.0008.009-1</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2985,7 +3265,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3033,7 +3313,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1082.0008.003-0</t>
+          <t xml:space="preserve"> 3.1082.0008.010-3</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3048,7 +3328,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3096,7 +3376,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1082.0008.004-9</t>
+          <t xml:space="preserve"> 3.1082.0008.011-1</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3111,7 +3391,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3139,17 +3419,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERLANDIA LTDA</t>
+          <t xml:space="preserve"> ISOPAR - INDUSTRIA DE SABÕES E ÓLEOS PARAENSE LTDA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01082-5</t>
+          <t xml:space="preserve"> 3.07571-2</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE DRAGÃO</t>
+          <t xml:space="preserve"> DESINFETANTE DU REI</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3159,7 +3439,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1082.0008.005-7</t>
+          <t xml:space="preserve"> 3.1082.0008.012-1</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3174,7 +3454,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3202,27 +3482,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERLANDIA LTDA</t>
+          <t xml:space="preserve"> ISOPAR - INDUSTRIA DE SABÕES E ÓLEOS PARAENSE LTDA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01082-5</t>
+          <t xml:space="preserve"> 3.07571-2</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE DRAGÃO</t>
+          <t xml:space="preserve"> DESINFETANTE DU REI</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.111721/2012-32</t>
+          <t xml:space="preserve"> 25351.071451/2022-96</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1082.0008.006-5</t>
+          <t xml:space="preserve"> 3.7571.0001.001-0</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3232,17 +3512,17 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05/2027</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> LAVANDA + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3252,7 +3532,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -3265,27 +3545,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERLANDIA LTDA</t>
+          <t xml:space="preserve"> ISOPAR - INDUSTRIA DE SABÕES E ÓLEOS PARAENSE LTDA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01082-5</t>
+          <t xml:space="preserve"> 3.07571-2</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE DRAGÃO</t>
+          <t xml:space="preserve"> DESINFETANTE DU REI</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.111721/2012-32</t>
+          <t xml:space="preserve"> 25351.071451/2022-96</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1082.0008.007-3</t>
+          <t xml:space="preserve"> 3.7571.0001.002-9</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3295,17 +3575,17 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05/2027</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> LIMÃO + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3315,7 +3595,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -3328,27 +3608,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERLANDIA LTDA</t>
+          <t xml:space="preserve"> ISOPAR - INDUSTRIA DE SABÕES E ÓLEOS PARAENSE LTDA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01082-5</t>
+          <t xml:space="preserve"> 3.07571-2</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE DRAGÃO</t>
+          <t xml:space="preserve"> DESINFETANTE DU REI</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.111721/2012-32</t>
+          <t xml:space="preserve"> 25351.071451/2022-96</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1082.0008.008-1</t>
+          <t xml:space="preserve"> 3.7571.0001.003-7</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3358,17 +3638,17 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05/2027</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> CITRUS + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3378,7 +3658,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -3391,27 +3671,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERLANDIA LTDA</t>
+          <t xml:space="preserve"> ISOPAR - INDUSTRIA DE SABÕES E ÓLEOS PARAENSE LTDA</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01082-5</t>
+          <t xml:space="preserve"> 3.07571-2</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE DRAGÃO</t>
+          <t xml:space="preserve"> DESINFETANTE DU REI</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.111721/2012-32</t>
+          <t xml:space="preserve"> 25351.071451/2022-96</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1082.0008.009-1</t>
+          <t xml:space="preserve"> 3.7571.0001.004-5</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3421,17 +3701,17 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05/2027</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FLORAL + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3441,7 +3721,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -3454,27 +3734,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERLANDIA LTDA</t>
+          <t xml:space="preserve"> ISOPAR - INDUSTRIA DE SABÕES E ÓLEOS PARAENSE LTDA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01082-5</t>
+          <t xml:space="preserve"> 3.07571-2</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE DRAGÃO</t>
+          <t xml:space="preserve"> DESINFETANTE DU REI</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.111721/2012-32</t>
+          <t xml:space="preserve"> 25351.071451/2022-96</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1082.0008.010-3</t>
+          <t xml:space="preserve"> 3.7571.0001.005-3</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3484,17 +3764,17 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05/2027</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> TALCO + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3504,7 +3784,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -3517,27 +3797,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERLANDIA LTDA</t>
+          <t xml:space="preserve"> ISOPAR - INDUSTRIA DE SABÕES E ÓLEOS PARAENSE LTDA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01082-5</t>
+          <t xml:space="preserve"> 3.07571-2</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE DRAGÃO</t>
+          <t xml:space="preserve"> DESINFETANTE DU REI</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.111721/2012-32</t>
+          <t xml:space="preserve"> 25351.071451/2022-96</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1082.0008.011-1</t>
+          <t xml:space="preserve"> 3.7571.0001.006-1</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3547,17 +3827,17 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05/2027</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> MARINE + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3567,7 +3847,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -3580,27 +3860,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERLANDIA LTDA</t>
+          <t xml:space="preserve"> ISOPAR - INDUSTRIA DE SABÕES E ÓLEOS PARAENSE LTDA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01082-5</t>
+          <t xml:space="preserve"> 3.07571-2</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE DRAGÃO</t>
+          <t xml:space="preserve"> DESINFETANTE DU REI</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.111721/2012-32</t>
+          <t xml:space="preserve"> 25351.071451/2022-96</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1082.0008.012-1</t>
+          <t xml:space="preserve"> 3.7571.0001.007-1</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3610,17 +3890,17 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05/2027</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> JASMIM + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3630,7 +3910,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -3643,17 +3923,57 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ISOPAR - INDUSTRIA DE SABÕES E ÓLEOS PARAENSE LTDA</t>
+          <t xml:space="preserve"> josé antonio pereira de oliveira</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.07571-2</t>
+          <t xml:space="preserve"> 3.05481-9</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE DU REI</t>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA GLOBO</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.071451/2022-96</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.7571.0001.008-8</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PINHO + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -3666,27 +3986,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ISOPAR - INDUSTRIA DE SABÕES E ÓLEOS PARAENSE LTDA</t>
+          <t xml:space="preserve"> josé antonio pereira de oliveira</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.07571-2</t>
+          <t xml:space="preserve"> 3.05481-9</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE DU REI</t>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA GLOBO</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.071451/2022-96</t>
+          <t xml:space="preserve"> 25351.266707/2014-29</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.7571.0001.001-0</t>
+          <t xml:space="preserve"> 3.5481.0001.001-9</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3696,27 +4016,27 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 07/2019</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAVANDA + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -3729,27 +4049,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ISOPAR - INDUSTRIA DE SABÕES E ÓLEOS PARAENSE LTDA</t>
+          <t xml:space="preserve"> KI LIMPO DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.07571-2</t>
+          <t xml:space="preserve"> 3.05271-3</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE DU REI</t>
+          <t xml:space="preserve"> DETERGENTE ALCALINO CONCENTRADO DEEP KLEAN</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.071451/2022-96</t>
+          <t xml:space="preserve"> 25351.266707/2014-29</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.7571.0001.002-9</t>
+          <t xml:space="preserve"> 3.5481.0001.002-7</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3759,27 +4079,27 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 07/2019</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMÃO + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> GALÃO PLÁSTICO + ACONDICIONAMENTO NÃO PREVISTO NA TABELA</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -3792,32 +4112,32 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ISOPAR - INDUSTRIA DE SABÕES E ÓLEOS PARAENSE LTDA</t>
+          <t xml:space="preserve"> KI LIMPO DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.07571-2</t>
+          <t xml:space="preserve"> 3.05271-3</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE DU REI</t>
+          <t xml:space="preserve"> DETERGENTE ALCALINO CONCENTRADO DEEP KLEAN</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.071451/2022-96</t>
+          <t xml:space="preserve"> 25351.030855/2022-20</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.7571.0001.003-7</t>
+          <t xml:space="preserve"> 3.5271.0030.001-4</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3827,7 +4147,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CITRUS + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3837,7 +4157,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3211042 DETERGENTE DESENGORDURANTE</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -3855,32 +4175,32 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ISOPAR - INDUSTRIA DE SABÕES E ÓLEOS PARAENSE LTDA</t>
+          <t xml:space="preserve"> LQB LABORATORIO QUIMICO BRASILEIRO - INDUSTRIA E COMERCIO EIRELI - EPP</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.07571-2</t>
+          <t xml:space="preserve"> 3.07568-3</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE DU REI</t>
+          <t xml:space="preserve"> TOALETE QUÍMICO ECO-W</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.071451/2022-96</t>
+          <t xml:space="preserve"> 25351.071486/2022-25</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.7571.0001.004-5</t>
+          <t xml:space="preserve"> 3.5271.0031.002-8</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3890,7 +4210,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FLORAL + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> TRADICIONAL + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3900,7 +4220,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -3918,47 +4238,47 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ISOPAR - INDUSTRIA DE SABÕES E ÓLEOS PARAENSE LTDA</t>
+          <t xml:space="preserve"> MAXX QUIMICA E SISTEMAS DE LIMPEZA EIRELI</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.07571-2</t>
+          <t xml:space="preserve"> 3.06833-1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE DU REI</t>
+          <t xml:space="preserve"> CL 100 Sanit</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.071451/2022-96</t>
+          <t xml:space="preserve"> 25351.836664/2018-98</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.7571.0001.005-3</t>
+          <t xml:space="preserve"> 3.7568.0008.001-3</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 05/2029</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TALCO + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> SACHET + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3968,7 +4288,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
         </is>
       </c>
     </row>
@@ -3981,32 +4301,32 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ISOPAR - INDUSTRIA DE SABÕES E ÓLEOS PARAENSE LTDA</t>
+          <t xml:space="preserve"> MERCOQUÍMICA INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.07571-2</t>
+          <t xml:space="preserve"> 3.02747-0</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE DU REI</t>
+          <t xml:space="preserve"> MERCOTECH DESINFETANTE</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.071451/2022-96</t>
+          <t xml:space="preserve"> 25351.346451/2021-74</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.7571.0001.006-1</t>
+          <t xml:space="preserve"> 3.6833.0004.001-3</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -4016,17 +4336,17 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MARINE + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> GALAO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4044,42 +4364,42 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ISOPAR - INDUSTRIA DE SABÕES E ÓLEOS PARAENSE LTDA</t>
+          <t xml:space="preserve"> MERCOQUÍMICA INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.07571-2</t>
+          <t xml:space="preserve"> 3.02747-0</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE DU REI</t>
+          <t xml:space="preserve"> MERCOTECH DESINFETANTE</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.071451/2022-96</t>
+          <t xml:space="preserve"> 25351.721844/2018-76</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.7571.0001.007-1</t>
+          <t xml:space="preserve"> 3.2747.0142.023-8</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 02/2029</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JASMIM + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> GALAO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4094,7 +4414,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 331 REG. SANEANTES - Nova versão de Produto</t>
         </is>
       </c>
     </row>
@@ -4107,42 +4427,42 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ISOPAR - INDUSTRIA DE SABÕES E ÓLEOS PARAENSE LTDA</t>
+          <t xml:space="preserve"> ORVALHO INDUSTRIA E COMERCIO DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.07571-2</t>
+          <t xml:space="preserve"> 3.06645-2</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE DU REI</t>
+          <t xml:space="preserve"> DESINFETANTE ORVALHO</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.071451/2022-96</t>
+          <t xml:space="preserve"> 25351.721844/2018-76</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.7571.0001.008-8</t>
+          <t xml:space="preserve"> 3.2747.0142.024-6</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 02/2029</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PINHO + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + ACONDICIONAMENTO NAO PREVISTO NA TABELA</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4157,7 +4477,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 331 REG. SANEANTES - Nova versão de Produto</t>
         </is>
       </c>
     </row>
@@ -4170,17 +4490,57 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> josé antonio pereira de oliveira</t>
+          <t xml:space="preserve"> ORVALHO INDUSTRIA E COMERCIO DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05481-9</t>
+          <t xml:space="preserve"> 3.06645-2</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA GLOBO</t>
+          <t xml:space="preserve"> DESINFETANTE ORVALHO</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.823621/2021-48</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.6645.0003.001-5</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE EUCALIPTO + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -4193,27 +4553,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> josé antonio pereira de oliveira</t>
+          <t xml:space="preserve"> ORVALHO INDUSTRIA E COMERCIO DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05481-9</t>
+          <t xml:space="preserve"> 3.06645-2</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA GLOBO</t>
+          <t xml:space="preserve"> DESINFETANTE ORVALHO</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.266707/2014-29</t>
+          <t xml:space="preserve"> 25351.823621/2021-48</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5481.0001.001-9</t>
+          <t xml:space="preserve"> 3.6645.0003.002-3</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4223,27 +4583,27 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 07/2019</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> DESINFETANTE FLORAL + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -4256,27 +4616,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> josé antonio pereira de oliveira</t>
+          <t xml:space="preserve"> ORVALHO INDUSTRIA E COMERCIO DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05481-9</t>
+          <t xml:space="preserve"> 3.06645-2</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA GLOBO</t>
+          <t xml:space="preserve"> DESINFETANTE ORVALHO</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.266707/2014-29</t>
+          <t xml:space="preserve"> 25351.823621/2021-48</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5481.0001.002-7</t>
+          <t xml:space="preserve"> 3.6645.0003.003-1</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4286,27 +4646,27 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 07/2019</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GALÃO PLÁSTICO + ACONDICIONAMENTO NÃO PREVISTO NA TABELA</t>
+          <t xml:space="preserve"> DESINFETANTE FRESH + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -4319,17 +4679,57 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KI LIMPO DO BRASIL LTDA</t>
+          <t xml:space="preserve"> ORVALHO INDUSTRIA E COMERCIO DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05271-3</t>
+          <t xml:space="preserve"> 3.06645-2</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DETERGENTE ALCALINO CONCENTRADO DEEP KLEAN</t>
+          <t xml:space="preserve"> DESINFETANTE ORVALHO</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.823621/2021-48</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.6645.0003.004-1</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE JASMIM + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -4342,32 +4742,32 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KI LIMPO DO BRASIL LTDA</t>
+          <t xml:space="preserve"> ORVALHO INDUSTRIA E COMERCIO DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05271-3</t>
+          <t xml:space="preserve"> 3.06645-2</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DETERGENTE ALCALINO CONCENTRADO DEEP KLEAN</t>
+          <t xml:space="preserve"> DESINFETANTE ORVALHO</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.030855/2022-20</t>
+          <t xml:space="preserve"> 25351.823621/2021-48</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5271.0030.001-4</t>
+          <t xml:space="preserve"> 3.6645.0003.005-8</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -4377,7 +4777,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> DESINFETANTE LAVANDA + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4387,7 +4787,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3211042 DETERGENTE DESENGORDURANTE</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -4405,32 +4805,32 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KI LIMPO DO BRASIL LTDA</t>
+          <t xml:space="preserve"> ORVALHO INDUSTRIA E COMERCIO DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05271-3</t>
+          <t xml:space="preserve"> 3.06645-2</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DETERGENTE ALCALINO CONCENTRADO DEEP KLEAN</t>
+          <t xml:space="preserve"> DESINFETANTE ORVALHO</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.071486/2022-25</t>
+          <t xml:space="preserve"> 25351.823621/2021-48</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5271.0031.002-8</t>
+          <t xml:space="preserve"> 3.6645.0003.006-6</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4440,7 +4840,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRADICIONAL + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> DESINFETANTE ORQUÍDEA + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4450,7 +4850,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -4468,17 +4868,57 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LQB LABORATORIO QUIMICO BRASILEIRO - INDUSTRIA E COMERCIO EIRELI - EPP</t>
+          <t xml:space="preserve"> ORVALHO INDUSTRIA E COMERCIO DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.07568-3</t>
+          <t xml:space="preserve"> 3.06645-2</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TOALETE QUÍMICO ECO-W</t>
+          <t xml:space="preserve"> DESINFETANTE ORVALHO</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.823621/2021-48</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.6645.0003.007-4</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE RAIZES + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -4491,47 +4931,47 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LQB LABORATORIO QUIMICO BRASILEIRO - INDUSTRIA E COMERCIO EIRELI - EPP</t>
+          <t xml:space="preserve"> PHILIPEIA INDUSTRIA QUIMICA LTDA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.07568-3</t>
+          <t xml:space="preserve"> 3.08335-4</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TOALETE QUÍMICO ECO-W</t>
+          <t xml:space="preserve"> DESINFE-Q PLUS</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.836664/2018-98</t>
+          <t xml:space="preserve"> 25351.823621/2021-48</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.7568.0008.001-3</t>
+          <t xml:space="preserve"> 3.6645.0003.008-2</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05/2029</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SACHET + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> DESINFETANTE TALCO + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4541,7 +4981,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -4554,17 +4994,57 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MAXX QUIMICA E SISTEMAS DE LIMPEZA EIRELI</t>
+          <t xml:space="preserve"> POLIPLAX PLASTICOS LTDA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06833-1</t>
+          <t xml:space="preserve"> 3.10516-6</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CL 100 Sanit</t>
+          <t xml:space="preserve"> ÁLCOOL GEL 70° INPI GRAFLOR</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.030832/2022-15</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8335.0003.001-8</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -4577,32 +5057,32 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MAXX QUIMICA E SISTEMAS DE LIMPEZA EIRELI</t>
+          <t xml:space="preserve"> POTIQUIMICA INDUSTRIA E DISTRIBUIDORA DE PRODUTOS QUIMICOS LTDA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06833-1</t>
+          <t xml:space="preserve"> 3.08446-8</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CL 100 Sanit</t>
+          <t xml:space="preserve"> Álcool 70° INPM POTI</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.346451/2021-74</t>
+          <t xml:space="preserve"> 25351.060170/2021-27</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6833.0004.001-3</t>
+          <t xml:space="preserve"> 3.0516.0003.001-7</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4612,7 +5092,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GALAO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> ÁLCOOL GEL 70 INPI GRAFLOR + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4622,7 +5102,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -4640,17 +5120,57 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MERCOQUÍMICA INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> PROTEGE QUIMICA LIMITADA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02747-0</t>
+          <t xml:space="preserve"> 3.09782-4</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MERCOTECH DESINFETANTE</t>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA PROTEGE</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.051690/2022-20</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8446.0002.001-1</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -4663,57 +5183,57 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MERCOQUÍMICA INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> PROTEGE QUIMICA LIMITADA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02747-0</t>
+          <t xml:space="preserve"> 3.09782-4</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MERCOTECH DESINFETANTE</t>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA PROTEGE</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.721844/2018-76</t>
+          <t xml:space="preserve"> 25351.413760/2021-67</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2747.0142.023-8</t>
+          <t xml:space="preserve"> 3.9782.0002.001-3</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2029</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GALAO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 331 REG. SANEANTES - Nova versão de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -4726,57 +5246,57 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MERCOQUÍMICA INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> QUIMICA JVC LTDA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02747-0</t>
+          <t xml:space="preserve"> 3.03265-1</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MERCOTECH DESINFETANTE</t>
+          <t xml:space="preserve"> JVC GERALCLOR MAX</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.721844/2018-76</t>
+          <t xml:space="preserve"> 25351.413760/2021-67</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2747.0142.024-6</t>
+          <t xml:space="preserve"> 3.9782.0002.002-1</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2029</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + ACONDICIONAMENTO NAO PREVISTO NA TABELA</t>
+          <t xml:space="preserve"> GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 331 REG. SANEANTES - Nova versão de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -4789,17 +5309,57 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ORVALHO INDUSTRIA E COMERCIO DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> QUIMICA JVC LTDA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06645-2</t>
+          <t xml:space="preserve"> 3.03265-1</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ORVALHO</t>
+          <t xml:space="preserve"> JVC GERALCLOR MAX</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.068261/2022-91</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3265.0050.001-1</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 Meses</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222050 DESINFETANTE PARA ROUPAS HOSPITALARES</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -4812,32 +5372,32 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ORVALHO INDUSTRIA E COMERCIO DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> QUÍMICA NOVA ARAÇATUBA INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06645-2</t>
+          <t xml:space="preserve"> 3.09636-1</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ORVALHO</t>
+          <t xml:space="preserve"> DETERGENTE DESINCRUSTANTE ÁCIDO RENOVA</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.823621/2021-48</t>
+          <t xml:space="preserve"> 25351.068261/2022-91</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6645.0003.001-5</t>
+          <t xml:space="preserve"> 3.3265.0050.002-8</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4847,17 +5407,17 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE EUCALIPTO + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> - + BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 3 Meses</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222050 DESINFETANTE PARA ROUPAS HOSPITALARES</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -4875,32 +5435,32 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ORVALHO INDUSTRIA E COMERCIO DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> QUÍMICA NOVA ARAÇATUBA INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06645-2</t>
+          <t xml:space="preserve"> 3.09636-1</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ORVALHO</t>
+          <t xml:space="preserve"> DETERGENTE DESINCRUSTANTE ÁCIDO RENOVA</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.823621/2021-48</t>
+          <t xml:space="preserve"> 25351.076890/2022-95</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6645.0003.002-3</t>
+          <t xml:space="preserve"> 3.9636.0004.001-3</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4910,7 +5470,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE FLORAL + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> ÚNICA + GALAO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4920,7 +5480,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -4938,32 +5498,32 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ORVALHO INDUSTRIA E COMERCIO DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> QUÍMICA NOVA ARAÇATUBA INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06645-2</t>
+          <t xml:space="preserve"> 3.09636-1</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ORVALHO</t>
+          <t xml:space="preserve"> DETERGENTE DESINCRUSTANTE ÁCIDO RENOVA</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.823621/2021-48</t>
+          <t xml:space="preserve"> 25351.076890/2022-95</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6645.0003.003-1</t>
+          <t xml:space="preserve"> 3.9636.0004.002-1</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4973,7 +5533,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE FRESH + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> ÚNICA + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4983,7 +5543,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -5001,32 +5561,32 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ORVALHO INDUSTRIA E COMERCIO DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> RECKITT BENCKISER (BRASIL) LTDA</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06645-2</t>
+          <t xml:space="preserve"> 3.00227-0</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ORVALHO</t>
+          <t xml:space="preserve"> VANISH OXI ACTION PREMIUM GEL</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.823621/2021-48</t>
+          <t xml:space="preserve"> 25351.076920/2022-63</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6645.0003.004-1</t>
+          <t xml:space="preserve"> 3.9636.0005.009-4</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -5036,7 +5596,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE JASMIM + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> AMARELO + ACONDICIONAMENTO NAO PREVISTO NA TABELA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5046,7 +5606,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3103084 DESENGRAXANTE</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -5064,27 +5624,27 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ORVALHO INDUSTRIA E COMERCIO DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> RECKITT BENCKISER (BRASIL) LTDA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06645-2</t>
+          <t xml:space="preserve"> 3.00227-0</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ORVALHO</t>
+          <t xml:space="preserve"> VANISH OXI ACTION PREMIUM GEL</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.823621/2021-48</t>
+          <t xml:space="preserve"> 25351.267120/2021-79</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6645.0003.005-8</t>
+          <t xml:space="preserve"> 000</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -5092,14 +5652,9 @@
           <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 02/2032</t>
-        </is>
-      </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LAVANDA + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5109,12 +5664,12 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222049 DESINFETANTE PARA TECIDOS E ROUPAS</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 30014 REG. SANEANTES - Desistência de petição/processo a pedido</t>
         </is>
       </c>
     </row>
@@ -5127,27 +5682,27 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ORVALHO INDUSTRIA E COMERCIO DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06645-2</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ORVALHO</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.823621/2021-48</t>
+          <t xml:space="preserve"> 25351.355739/2021-30</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6645.0003.006-6</t>
+          <t xml:space="preserve"> 3.0227.1031.004-5</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -5162,7 +5717,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ORQUÍDEA + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> LAVANDA + FRASCO DE PLASTICO OPACO SQUEEZE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5190,27 +5745,27 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ORVALHO INDUSTRIA E COMERCIO DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06645-2</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ORVALHO</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.823621/2021-48</t>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6645.0003.007-4</t>
+          <t xml:space="preserve"> 3.0451.0002.001-8</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -5225,7 +5780,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE RAIZES + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> EUCALIPTO + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -5253,27 +5808,27 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ORVALHO INDUSTRIA E COMERCIO DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06645-2</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ORVALHO</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.823621/2021-48</t>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6645.0003.008-2</t>
+          <t xml:space="preserve"> 3.0451.0002.002-6</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -5288,7 +5843,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE TALCO + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> EUCALIPTO + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -5316,17 +5871,57 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PHILIPEIA INDUSTRIA QUIMICA LTDA</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08335-4</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFE-Q PLUS</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0451.0002.003-4</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FLORAL + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -5339,32 +5934,32 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PHILIPEIA INDUSTRIA QUIMICA LTDA</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08335-4</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFE-Q PLUS</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.030832/2022-15</t>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8335.0003.001-8</t>
+          <t xml:space="preserve"> 3.0451.0002.004-2</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -5374,7 +5969,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FLORAL + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5384,7 +5979,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -5402,17 +5997,57 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> POLIPLAX PLASTICOS LTDA</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10516-6</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁLCOOL GEL 70° INPI GRAFLOR</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0451.0002.005-0</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HERBAL + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -5425,27 +6060,27 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> POLIPLAX PLASTICOS LTDA</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10516-6</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁLCOOL GEL 70° INPI GRAFLOR</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.060170/2021-27</t>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0516.0003.001-7</t>
+          <t xml:space="preserve"> 3.0451.0002.006-9</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -5460,12 +6095,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁLCOOL GEL 70 INPI GRAFLOR + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> HERBAL + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5488,17 +6123,57 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> POTIQUIMICA INDUSTRIA E DISTRIBUIDORA DE PRODUTOS QUIMICOS LTDA</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08446-8</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Álcool 70° INPM POTI</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0451.0002.007-7</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JASMIM + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -5511,32 +6186,32 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> POTIQUIMICA INDUSTRIA E DISTRIBUIDORA DE PRODUTOS QUIMICOS LTDA</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08446-8</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Álcool 70° INPM POTI</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.051690/2022-20</t>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8446.0002.001-1</t>
+          <t xml:space="preserve"> 3.0451.0002.008-5</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -5546,7 +6221,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> JASMIM + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5556,7 +6231,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -5574,17 +6249,57 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PROTEGE QUIMICA LIMITADA</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09782-4</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA PROTEGE</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0451.0002.009-3</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAVANDA + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -5597,27 +6312,27 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PROTEGE QUIMICA LIMITADA</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09782-4</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA PROTEGE</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.413760/2021-67</t>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9782.0002.001-3</t>
+          <t xml:space="preserve"> 3.0451.0002.010-7</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -5632,17 +6347,17 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> LAVANDA + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -5660,27 +6375,27 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PROTEGE QUIMICA LIMITADA</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09782-4</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA PROTEGE</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.413760/2021-67</t>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9782.0002.002-1</t>
+          <t xml:space="preserve"> 3.0451.0002.011-5</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -5695,17 +6410,17 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> MARINE + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -5723,17 +6438,57 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QUIMICA JVC LTDA</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03265-1</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JVC GERALCLOR MAX</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0451.0002.012-3</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MARINE + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -5746,32 +6501,32 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QUIMICA JVC LTDA</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03265-1</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JVC GERALCLOR MAX</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.068261/2022-91</t>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3265.0050.001-1</t>
+          <t xml:space="preserve"> 3.0451.0002.013-1</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5781,17 +6536,17 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> PINHO + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222050 DESINFETANTE PARA ROUPAS HOSPITALARES</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -5809,32 +6564,32 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QUIMICA JVC LTDA</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03265-1</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JVC GERALCLOR MAX</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.068261/2022-91</t>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3265.0050.002-8</t>
+          <t xml:space="preserve"> 3.0451.0002.014-1</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5844,17 +6599,17 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - + BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> PINHO + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222050 DESINFETANTE PARA ROUPAS HOSPITALARES</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -5872,17 +6627,57 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QUÍMICA NOVA ARAÇATUBA INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09636-1</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DETERGENTE DESINCRUSTANTE ÁCIDO RENOVA</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0451.0002.015-8</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TALCO + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -5895,32 +6690,32 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QUÍMICA NOVA ARAÇATUBA INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09636-1</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DETERGENTE DESINCRUSTANTE ÁCIDO RENOVA</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.076890/2022-95</t>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9636.0004.001-3</t>
+          <t xml:space="preserve"> 3.0451.0002.016-6</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5930,7 +6725,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÚNICA + GALAO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> TALCO + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5940,7 +6735,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -5958,32 +6753,32 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QUÍMICA NOVA ARAÇATUBA INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09636-1</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DETERGENTE DESINCRUSTANTE ÁCIDO RENOVA</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.076890/2022-95</t>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9636.0004.002-1</t>
+          <t xml:space="preserve"> 3.0451.0002.017-4</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5993,7 +6788,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÚNICA + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> TROPICAL + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -6003,7 +6798,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -6021,32 +6816,32 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QUÍMICA NOVA ARAÇATUBA INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA</t>
+          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09636-1</t>
+          <t xml:space="preserve"> 3.00723-3</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DETERGENTE DESINCRUSTANTE ÁCIDO RENOVA</t>
+          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.076920/2022-63</t>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9636.0005.009-4</t>
+          <t xml:space="preserve"> 3.0451.0002.018-2</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -6056,7 +6851,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AMARELO + ACONDICIONAMENTO NAO PREVISTO NA TABELA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> TROPICAL + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -6066,7 +6861,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103084 DESENGRAXANTE</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -6084,17 +6879,57 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RECKITT BENCKISER (BRASIL) LTDA</t>
+          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00227-0</t>
+          <t xml:space="preserve"> 3.00723-3</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VANISH OXI ACTION PREMIUM GEL</t>
+          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.269693/2018-31</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0723.0041.001-1</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 08/2028</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
         </is>
       </c>
     </row>
@@ -6107,27 +6942,27 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RECKITT BENCKISER (BRASIL) LTDA</t>
+          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00227-0</t>
+          <t xml:space="preserve"> 3.00723-3</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VANISH OXI ACTION PREMIUM GEL</t>
+          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.267120/2021-79</t>
+          <t xml:space="preserve"> 25351.269693/2018-31</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 000</t>
+          <t xml:space="preserve"> 3.0723.0041.002-1</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -6135,9 +6970,14 @@
           <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 08/2028</t>
+        </is>
+      </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -6147,12 +6987,12 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222049 DESINFETANTE PARA TECIDOS E ROUPAS</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30014 REG. SANEANTES - Desistência de petição/processo a pedido</t>
+          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
         </is>
       </c>
     </row>
@@ -6165,27 +7005,27 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RECKITT BENCKISER (BRASIL) LTDA</t>
+          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00227-0</t>
+          <t xml:space="preserve"> 3.00723-3</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VANISH OXI ACTION PREMIUM GEL</t>
+          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.355739/2021-30</t>
+          <t xml:space="preserve"> 25351.269693/2018-31</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0227.1031.004-5</t>
+          <t xml:space="preserve"> 3.0723.0041.003-8</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -6195,12 +7035,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 08/2028</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAVANDA + FRASCO DE PLASTICO OPACO SQUEEZE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6215,7 +7055,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
         </is>
       </c>
     </row>
@@ -6228,17 +7068,57 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.00723-3</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.269693/2018-31</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0723.0041.004-6</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 08/2028</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
         </is>
       </c>
     </row>
@@ -6251,27 +7131,27 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.00723-3</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.269693/2018-31</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.001-8</t>
+          <t xml:space="preserve"> 3.0723.0041.005-4</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -6281,12 +7161,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 08/2028</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EUCALIPTO + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -6301,7 +7181,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
         </is>
       </c>
     </row>
@@ -6314,27 +7194,27 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.00723-3</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.269693/2018-31</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.002-6</t>
+          <t xml:space="preserve"> 3.0723.0041.006-2</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -6344,12 +7224,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 08/2028</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EUCALIPTO + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -6364,7 +7244,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
         </is>
       </c>
     </row>
@@ -6377,27 +7257,27 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.00723-3</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.269693/2018-31</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.003-4</t>
+          <t xml:space="preserve"> 3.0723.0041.007-0</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -6407,12 +7287,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 08/2028</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FLORAL + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -6427,7 +7307,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
         </is>
       </c>
     </row>
@@ -6440,27 +7320,27 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.00723-3</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.269693/2018-31</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.004-2</t>
+          <t xml:space="preserve"> 3.0723.0041.008-9</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -6470,12 +7350,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 08/2028</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FLORAL + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -6490,7 +7370,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
         </is>
       </c>
     </row>
@@ -6503,27 +7383,27 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.00723-3</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.269693/2018-31</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.005-0</t>
+          <t xml:space="preserve"> 3.0723.0041.009-7</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -6533,12 +7413,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 08/2028</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HERBAL + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -6553,7 +7433,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
         </is>
       </c>
     </row>
@@ -6566,27 +7446,27 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> UNILEVER BRASIL INDUSTRIAL LTDA</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.02066-7</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> CAFUNÉ MULTIUSO DESINFETANTE ERVA DOCE</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.269693/2018-31</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.006-9</t>
+          <t xml:space="preserve"> 3.0723.0041.010-0</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -6596,12 +7476,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 08/2028</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HERBAL + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -6616,7 +7496,7 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
         </is>
       </c>
     </row>
@@ -6629,27 +7509,27 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> VOFSI QUIMICA PRODUTOS DE LIMPEZA E COSMETICOS EIRELI</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.03021-7</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> CHLORINE T 2,5 %</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.247633/2020-82</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.007-7</t>
+          <t xml:space="preserve"> 3.2066.0509.001-5</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -6659,17 +7539,17 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 06/2030</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JASMIM + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 2 Ano(s)</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -6679,7 +7559,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 30014 REG. SANEANTES - Desistência de petição/processo a pedido</t>
         </is>
       </c>
     </row>
@@ -6692,32 +7572,32 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.00960-1</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.004344/2022-52</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.008-5</t>
+          <t xml:space="preserve"> 3.3021.0004.001-4</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -6727,17 +7607,17 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JASMIM + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA + FILME PLASTICO</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -6755,27 +7635,27 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.00960-1</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.816253/2018-86</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.009-3</t>
+          <t xml:space="preserve"> 3.0960.0058.001-6</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -6785,12 +7665,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 03/2029</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAVANDA + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -6805,7 +7685,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -6818,27 +7698,27 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.00960-1</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.816253/2018-86</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.010-7</t>
+          <t xml:space="preserve"> 3.0960.0058.002-4</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -6848,12 +7728,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 03/2029</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAVANDA + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6868,7 +7748,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -6881,27 +7761,27 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.00960-1</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.816253/2018-86</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.011-5</t>
+          <t xml:space="preserve"> 3.0960.0058.003-2</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -6911,12 +7791,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 03/2029</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MARINE + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6931,7 +7811,7 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -6944,27 +7824,27 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.00960-1</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.816253/2018-86</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.012-3</t>
+          <t xml:space="preserve"> 3.0960.0058.004-0</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -6974,12 +7854,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 03/2029</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MARINE + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6994,7 +7874,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -7007,27 +7887,27 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.00960-1</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.816253/2018-86</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.013-1</t>
+          <t xml:space="preserve"> 3.0960.0058.005-9</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -7037,12 +7917,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 03/2029</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PINHO + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -7057,7 +7937,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -7070,27 +7950,27 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.00960-1</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.816253/2018-86</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.014-1</t>
+          <t xml:space="preserve"> 3.0960.0058.006-7</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -7100,12 +7980,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 03/2029</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PINHO + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -7120,7 +8000,7 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -7133,27 +8013,27 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.00960-1</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.816253/2018-86</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.015-8</t>
+          <t xml:space="preserve"> 3.0960.0058.007-5</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -7163,12 +8043,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 03/2029</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TALCO + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -7183,7 +8063,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -7196,27 +8076,27 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.00960-1</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.816253/2018-86</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.016-6</t>
+          <t xml:space="preserve"> 3.0960.0058.008-3</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -7226,12 +8106,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 03/2029</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TALCO + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -7246,7 +8126,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -7259,27 +8139,27 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.00960-1</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.816253/2018-86</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.017-4</t>
+          <t xml:space="preserve"> 3.0960.0058.009-1</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -7289,12 +8169,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 03/2029</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TROPICAL + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -7309,7 +8189,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -7322,27 +8202,27 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.00960-1</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.816253/2018-86</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.018-2</t>
+          <t xml:space="preserve"> 3.0960.0058.010-5</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -7352,12 +8232,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 03/2029</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TROPICAL + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -7372,7 +8252,7 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -7385,17 +8265,57 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
+          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00723-3</t>
+          <t xml:space="preserve"> 3.00960-1</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
+          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.816253/2018-86</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0960.0058.011-3</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2029</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -7408,27 +8328,27 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
+          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00723-3</t>
+          <t xml:space="preserve"> 3.00960-1</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
+          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.269693/2018-31</t>
+          <t xml:space="preserve"> 25351.816253/2018-86</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0723.0041.001-1</t>
+          <t xml:space="preserve"> 3.0960.0058.012-1</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -7438,7 +8358,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 08/2028</t>
+          <t xml:space="preserve"> 03/2029</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -7458,746 +8378,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022
-</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.00723-3</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.269693/2018-31</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.0723.0041.002-1</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 08/2028</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022
-</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.00723-3</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.269693/2018-31</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.0723.0041.003-8</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 08/2028</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022
-</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.00723-3</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.269693/2018-31</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.0723.0041.004-6</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 08/2028</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022
-</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.00723-3</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.269693/2018-31</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.0723.0041.005-4</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 08/2028</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022
-</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.00723-3</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.269693/2018-31</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.0723.0041.006-2</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 08/2028</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022
-</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.00723-3</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.269693/2018-31</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.0723.0041.007-0</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 08/2028</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022
-</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.00723-3</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.269693/2018-31</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.0723.0041.008-9</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 08/2028</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022
-</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.00723-3</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.269693/2018-31</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.0723.0041.009-7</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 08/2028</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022
-</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.00723-3</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.269693/2018-31</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.0723.0041.010-0</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 08/2028</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022
-</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> UNILEVER BRASIL INDUSTRIAL LTDA</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.02066-7</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> CAFUNÉ MULTIUSO DESINFETANTE ERVA DOCE</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022
-</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> UNILEVER BRASIL INDUSTRIAL LTDA</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.02066-7</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> CAFUNÉ MULTIUSO DESINFETANTE ERVA DOCE</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.247633/2020-82</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.2066.0509.001-5</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 06/2030</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2 Ano(s)</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30014 REG. SANEANTES - Desistência de petição/processo a pedido</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022
-</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> VOFSI QUIMICA PRODUTOS DE LIMPEZA E COSMETICOS EIRELI</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.03021-7</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> CHLORINE T 2,5 %</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022
-</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> VOFSI QUIMICA PRODUTOS DE LIMPEZA E COSMETICOS EIRELI</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.03021-7</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> CHLORINE T 2,5 %</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.004344/2022-52</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.3021.0004.001-4</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 02/2032</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA + FILME PLASTICO</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6 Meses</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
-        </is>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>

--- a/2022_09_12_query/RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022.xlsx
+++ b/2022_09_12_query/RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N128"/>
+  <dimension ref="A1:N145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,21 +433,6 @@
 </t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Alber Quimica Industria e Comercio de Sanaeantes Eirelli-ME</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.06740-0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Klin White Max Alberquímica</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -458,17 +443,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> American Nutrients do Brasil Indústria e Comércio Ltda.</t>
+          <t xml:space="preserve"> Alber Quimica Industria e Comercio de Sanaeantes Eirelli-ME</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05522-1</t>
+          <t xml:space="preserve"> 3.06740-0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECOTREX DRY</t>
+          <t xml:space="preserve"> Klin White Max Alberquímica</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -710,17 +695,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOM TOQUE INDUSTRIA QUIMICA LTDA.</t>
+          <t xml:space="preserve"> American Nutrients do Brasil Indústria e Comércio Ltda.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10226-4</t>
+          <t xml:space="preserve"> 3.05522-1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMTEC BT310 DESINCRUSTANTE ALCALINO BAIXA ESPUMA</t>
+          <t xml:space="preserve"> ECOTREX DRY</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -899,17 +884,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBRIL S/A</t>
+          <t xml:space="preserve"> BOM TOQUE INDUSTRIA QUIMICA LTDA.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00589-1</t>
+          <t xml:space="preserve"> 3.10226-4</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PINHO BRIL</t>
+          <t xml:space="preserve"> LIMTEC BT310 DESINCRUSTANTE ALCALINO BAIXA ESPUMA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2222,17 +2207,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BTA ADITIVOS LTDA</t>
+          <t xml:space="preserve"> BOMBRIL S/A</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04585-2</t>
+          <t xml:space="preserve"> 3.00589-1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ATOPUS VEG</t>
+          <t xml:space="preserve"> PINHO BRIL</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2348,17 +2333,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FABRICA CORDEIRO LTDA EPP</t>
+          <t xml:space="preserve"> BTA ADITIVOS LTDA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02266-8</t>
+          <t xml:space="preserve"> 3.04585-2</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE BRANMIX</t>
+          <t xml:space="preserve"> ATOPUS VEG</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2600,17 +2585,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERFINA AGROQUIMICA LTDA-EPP</t>
+          <t xml:space="preserve"> FABRICA CORDEIRO LTDA EPP</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05685-4</t>
+          <t xml:space="preserve"> 3.02266-8</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TIAMOXAM 750 WG</t>
+          <t xml:space="preserve"> DESINFETANTE BRANMIX</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2663,17 +2648,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERLANDIA LTDA</t>
+          <t xml:space="preserve"> INTERFINA AGROQUIMICA LTDA-EPP</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01082-5</t>
+          <t xml:space="preserve"> 3.05685-4</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE DRAGÃO</t>
+          <t xml:space="preserve"> TIAMOXAM 750 WG</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3419,17 +3404,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ISOPAR - INDUSTRIA DE SABÕES E ÓLEOS PARAENSE LTDA</t>
+          <t xml:space="preserve"> INTERLANDIA LTDA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.07571-2</t>
+          <t xml:space="preserve"> 3.01082-5</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE DU REI</t>
+          <t xml:space="preserve"> DESINFETANTE DRAGÃO</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3923,17 +3908,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> josé antonio pereira de oliveira</t>
+          <t xml:space="preserve"> ISOPAR - INDUSTRIA DE SABÕES E ÓLEOS PARAENSE LTDA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05481-9</t>
+          <t xml:space="preserve"> 3.07571-2</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA GLOBO</t>
+          <t xml:space="preserve"> DESINFETANTE DU REI</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4049,17 +4034,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KI LIMPO DO BRASIL LTDA</t>
+          <t xml:space="preserve"> josé antonio pereira de oliveira</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05271-3</t>
+          <t xml:space="preserve"> 3.05481-9</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DETERGENTE ALCALINO CONCENTRADO DEEP KLEAN</t>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA GLOBO</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4175,27 +4160,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LQB LABORATORIO QUIMICO BRASILEIRO - INDUSTRIA E COMERCIO EIRELI - EPP</t>
+          <t xml:space="preserve"> KI LIMPO DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.07568-3</t>
+          <t xml:space="preserve"> 3.05271-3</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TOALETE QUÍMICO ECO-W</t>
+          <t xml:space="preserve"> DETERGENTE ALCALINO CONCENTRADO DEEP KLEAN</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.071486/2022-25</t>
+          <t xml:space="preserve"> 25351.030855/2022-20</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5271.0031.002-8</t>
+          <t xml:space="preserve"> 3.5271.0030.002-2</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4210,7 +4195,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRADICIONAL + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4220,7 +4205,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+          <t xml:space="preserve"> 3211042 DETERGENTE DESENGORDURANTE</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4238,27 +4223,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MAXX QUIMICA E SISTEMAS DE LIMPEZA EIRELI</t>
+          <t xml:space="preserve"> KI LIMPO DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06833-1</t>
+          <t xml:space="preserve"> 3.05271-3</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CL 100 Sanit</t>
+          <t xml:space="preserve"> DETERGENTE ALCALINO DESINCRUSTANTE DECRUST KLEAN</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.836664/2018-98</t>
+          <t xml:space="preserve"> 25351.071486/2022-25</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.7568.0008.001-3</t>
+          <t xml:space="preserve"> 3.5271.0031.001-1</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4268,27 +4253,27 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05/2029</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SACHET + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> TRADICIONAL + GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -4301,27 +4286,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MERCOQUÍMICA INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> KI LIMPO DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02747-0</t>
+          <t xml:space="preserve"> 3.05271-3</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MERCOTECH DESINFETANTE</t>
+          <t xml:space="preserve"> DETERGENTE ALCALINO DESINCRUSTANTE DECRUST KLEAN</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.346451/2021-74</t>
+          <t xml:space="preserve"> 25351.071486/2022-25</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6833.0004.001-3</t>
+          <t xml:space="preserve"> 3.5271.0031.002-8</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4336,17 +4321,17 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GALAO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> TRADICIONAL + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4364,47 +4349,47 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MERCOQUÍMICA INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> LQB LABORATORIO QUIMICO BRASILEIRO - INDUSTRIA E COMERCIO EIRELI - EPP</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02747-0</t>
+          <t xml:space="preserve"> 3.07568-3</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MERCOTECH DESINFETANTE</t>
+          <t xml:space="preserve"> TOALETE QUÍMICO ECO-W</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.721844/2018-76</t>
+          <t xml:space="preserve"> 25351.836664/2018-98</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2747.0142.023-8</t>
+          <t xml:space="preserve"> 3.7568.0008.001-3</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2029</t>
+          <t xml:space="preserve"> 05/2029</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GALAO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> SACHET + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4414,7 +4399,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 331 REG. SANEANTES - Nova versão de Produto</t>
+          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
         </is>
       </c>
     </row>
@@ -4427,57 +4412,57 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ORVALHO INDUSTRIA E COMERCIO DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> MAXX QUIMICA E SISTEMAS DE LIMPEZA EIRELI</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06645-2</t>
+          <t xml:space="preserve"> 3.06833-1</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ORVALHO</t>
+          <t xml:space="preserve"> CL 100 Sanit</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.721844/2018-76</t>
+          <t xml:space="preserve"> 25351.346451/2021-74</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2747.0142.024-6</t>
+          <t xml:space="preserve"> 3.6833.0004.001-3</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2029</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + ACONDICIONAMENTO NAO PREVISTO NA TABELA</t>
+          <t xml:space="preserve"> GALAO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 331 REG. SANEANTES - Nova versão de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -4490,42 +4475,42 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ORVALHO INDUSTRIA E COMERCIO DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> MERCOQUÍMICA INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06645-2</t>
+          <t xml:space="preserve"> 3.02747-0</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ORVALHO</t>
+          <t xml:space="preserve"> MERCOTECH DESINFETANTE</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.823621/2021-48</t>
+          <t xml:space="preserve"> 25351.721844/2018-76</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6645.0003.001-5</t>
+          <t xml:space="preserve"> 3.2747.0142.023-8</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 02/2029</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE EUCALIPTO + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> GALAO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4540,7 +4525,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 331 REG. SANEANTES - Nova versão de Produto</t>
         </is>
       </c>
     </row>
@@ -4553,42 +4538,42 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ORVALHO INDUSTRIA E COMERCIO DE PRODUTOS DE LIMPEZA LTDA ME</t>
+          <t xml:space="preserve"> MERCOQUÍMICA INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06645-2</t>
+          <t xml:space="preserve"> 3.02747-0</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ORVALHO</t>
+          <t xml:space="preserve"> MERCOTECH DESINFETANTE</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.823621/2021-48</t>
+          <t xml:space="preserve"> 25351.721844/2018-76</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6645.0003.002-3</t>
+          <t xml:space="preserve"> 3.2747.0142.024-6</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 02/2029</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE FLORAL + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + ACONDICIONAMENTO NAO PREVISTO NA TABELA</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4603,7 +4588,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 331 REG. SANEANTES - Nova versão de Produto</t>
         </is>
       </c>
     </row>
@@ -4636,7 +4621,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6645.0003.003-1</t>
+          <t xml:space="preserve"> 3.6645.0003.001-5</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4651,7 +4636,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE FRESH + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> DESINFETANTE EUCALIPTO + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4699,7 +4684,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6645.0003.004-1</t>
+          <t xml:space="preserve"> 3.6645.0003.002-3</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -4714,7 +4699,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE JASMIM + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> DESINFETANTE FLORAL + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4762,7 +4747,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6645.0003.005-8</t>
+          <t xml:space="preserve"> 3.6645.0003.003-1</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -4777,7 +4762,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LAVANDA + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> DESINFETANTE FRESH + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4825,7 +4810,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6645.0003.006-6</t>
+          <t xml:space="preserve"> 3.6645.0003.004-1</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4840,7 +4825,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ORQUÍDEA + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> DESINFETANTE JASMIM + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4888,7 +4873,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6645.0003.007-4</t>
+          <t xml:space="preserve"> 3.6645.0003.005-8</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4903,7 +4888,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE RAIZES + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> DESINFETANTE LAVANDA + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4931,17 +4916,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PHILIPEIA INDUSTRIA QUIMICA LTDA</t>
+          <t xml:space="preserve"> ORVALHO INDUSTRIA E COMERCIO DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08335-4</t>
+          <t xml:space="preserve"> 3.06645-2</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFE-Q PLUS</t>
+          <t xml:space="preserve"> DESINFETANTE ORVALHO</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4951,7 +4936,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6645.0003.008-2</t>
+          <t xml:space="preserve"> 3.6645.0003.006-6</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4966,7 +4951,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE TALCO + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> DESINFETANTE ORQUÍDEA + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4994,32 +4979,32 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> POLIPLAX PLASTICOS LTDA</t>
+          <t xml:space="preserve"> ORVALHO INDUSTRIA E COMERCIO DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10516-6</t>
+          <t xml:space="preserve"> 3.06645-2</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁLCOOL GEL 70° INPI GRAFLOR</t>
+          <t xml:space="preserve"> DESINFETANTE ORVALHO</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.030832/2022-15</t>
+          <t xml:space="preserve"> 25351.823621/2021-48</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8335.0003.001-8</t>
+          <t xml:space="preserve"> 3.6645.0003.007-4</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -5029,7 +5014,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> DESINFETANTE RAIZES + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -5039,7 +5024,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5057,27 +5042,27 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> POTIQUIMICA INDUSTRIA E DISTRIBUIDORA DE PRODUTOS QUIMICOS LTDA</t>
+          <t xml:space="preserve"> ORVALHO INDUSTRIA E COMERCIO DE PRODUTOS DE LIMPEZA LTDA ME</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08446-8</t>
+          <t xml:space="preserve"> 3.06645-2</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Álcool 70° INPM POTI</t>
+          <t xml:space="preserve"> DESINFETANTE ORVALHO</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.060170/2021-27</t>
+          <t xml:space="preserve"> 25351.823621/2021-48</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0516.0003.001-7</t>
+          <t xml:space="preserve"> 3.6645.0003.008-2</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5092,12 +5077,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁLCOOL GEL 70 INPI GRAFLOR + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> DESINFETANTE TALCO + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -5120,27 +5105,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PROTEGE QUIMICA LIMITADA</t>
+          <t xml:space="preserve"> PHILIPEIA INDUSTRIA QUIMICA LTDA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09782-4</t>
+          <t xml:space="preserve"> 3.08335-4</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA PROTEGE</t>
+          <t xml:space="preserve"> DESINFE-Q PLUS</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.051690/2022-20</t>
+          <t xml:space="preserve"> 25351.030832/2022-15</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8446.0002.001-1</t>
+          <t xml:space="preserve"> 3.8335.0003.001-8</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5155,7 +5140,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5183,27 +5168,27 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PROTEGE QUIMICA LIMITADA</t>
+          <t xml:space="preserve"> POLIPLAX PLASTICOS LTDA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09782-4</t>
+          <t xml:space="preserve"> 3.10516-6</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA PROTEGE</t>
+          <t xml:space="preserve"> ÁLCOOL GEL 70° INPI GRAFLOR</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.413760/2021-67</t>
+          <t xml:space="preserve"> 25351.060170/2021-27</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9782.0002.001-3</t>
+          <t xml:space="preserve"> 3.0516.0003.001-7</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5218,17 +5203,17 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> ÁLCOOL GEL 70 INPI GRAFLOR + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -5246,32 +5231,32 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QUIMICA JVC LTDA</t>
+          <t xml:space="preserve"> POTIQUIMICA INDUSTRIA E DISTRIBUIDORA DE PRODUTOS QUIMICOS LTDA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03265-1</t>
+          <t xml:space="preserve"> 3.08446-8</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JVC GERALCLOR MAX</t>
+          <t xml:space="preserve"> Álcool 70° INPM POTI</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.413760/2021-67</t>
+          <t xml:space="preserve"> 25351.051690/2022-20</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9782.0002.002-1</t>
+          <t xml:space="preserve"> 3.8446.0002.001-1</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -5281,17 +5266,17 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -5309,32 +5294,32 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QUIMICA JVC LTDA</t>
+          <t xml:space="preserve"> PROTEGE QUIMICA LIMITADA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03265-1</t>
+          <t xml:space="preserve"> 3.09782-4</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JVC GERALCLOR MAX</t>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA PROTEGE</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.068261/2022-91</t>
+          <t xml:space="preserve"> 25351.413760/2021-67</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3265.0050.001-1</t>
+          <t xml:space="preserve"> 3.9782.0002.001-3</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -5344,17 +5329,17 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222050 DESINFETANTE PARA ROUPAS HOSPITALARES</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5372,32 +5357,32 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QUÍMICA NOVA ARAÇATUBA INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA</t>
+          <t xml:space="preserve"> PROTEGE QUIMICA LIMITADA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09636-1</t>
+          <t xml:space="preserve"> 3.09782-4</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DETERGENTE DESINCRUSTANTE ÁCIDO RENOVA</t>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA PROTEGE</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.068261/2022-91</t>
+          <t xml:space="preserve"> 25351.413760/2021-67</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3265.0050.002-8</t>
+          <t xml:space="preserve"> 3.9782.0002.002-1</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -5407,17 +5392,17 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - + BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222050 DESINFETANTE PARA ROUPAS HOSPITALARES</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5435,27 +5420,27 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QUÍMICA NOVA ARAÇATUBA INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA</t>
+          <t xml:space="preserve"> QUIMICA JVC LTDA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09636-1</t>
+          <t xml:space="preserve"> 3.03265-1</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DETERGENTE DESINCRUSTANTE ÁCIDO RENOVA</t>
+          <t xml:space="preserve"> JVC GERALCLOR MAX</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.076890/2022-95</t>
+          <t xml:space="preserve"> 25351.068261/2022-91</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9636.0004.001-3</t>
+          <t xml:space="preserve"> 3.3265.0050.001-1</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5470,17 +5455,17 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÚNICA + GALAO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> - + GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 3 Meses</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3222050 DESINFETANTE PARA ROUPAS HOSPITALARES</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -5498,27 +5483,27 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QUÍMICA NOVA ARAÇATUBA INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA</t>
+          <t xml:space="preserve"> QUIMICA JVC LTDA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09636-1</t>
+          <t xml:space="preserve"> 3.03265-1</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DETERGENTE DESINCRUSTANTE ÁCIDO RENOVA</t>
+          <t xml:space="preserve"> JVC GERALCLOR MAX</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.076890/2022-95</t>
+          <t xml:space="preserve"> 25351.068261/2022-91</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9636.0004.002-1</t>
+          <t xml:space="preserve"> 3.3265.0050.002-8</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -5533,17 +5518,17 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÚNICA + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> - + BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 3 Meses</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3222050 DESINFETANTE PARA ROUPAS HOSPITALARES</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -5561,27 +5546,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RECKITT BENCKISER (BRASIL) LTDA</t>
+          <t xml:space="preserve"> QUÍMICA NOVA ARAÇATUBA INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00227-0</t>
+          <t xml:space="preserve"> 3.09636-1</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VANISH OXI ACTION PREMIUM GEL</t>
+          <t xml:space="preserve"> DETERGENTE DESINCRUSTANTE ÁCIDO RENOVA</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.076920/2022-63</t>
+          <t xml:space="preserve"> 25351.076890/2022-95</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9636.0005.009-4</t>
+          <t xml:space="preserve"> 3.9636.0004.001-3</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -5596,7 +5581,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AMARELO + ACONDICIONAMENTO NAO PREVISTO NA TABELA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> ÚNICA + GALAO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5606,7 +5591,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103084 DESENGRAXANTE</t>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -5624,37 +5609,42 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RECKITT BENCKISER (BRASIL) LTDA</t>
+          <t xml:space="preserve"> QUÍMICA NOVA ARAÇATUBA INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00227-0</t>
+          <t xml:space="preserve"> 3.09636-1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VANISH OXI ACTION PREMIUM GEL</t>
+          <t xml:space="preserve"> DETERGENTE DESINCRUSTANTE ÁCIDO RENOVA</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.267120/2021-79</t>
+          <t xml:space="preserve"> 25351.076890/2022-95</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 000</t>
+          <t xml:space="preserve"> 3.9636.0004.002-1</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> ÚNICA + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5664,12 +5654,12 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222049 DESINFETANTE PARA TECIDOS E ROUPAS</t>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30014 REG. SANEANTES - Desistência de petição/processo a pedido</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -5682,32 +5672,32 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> QUÍMICA NOVA ARAÇATUBA INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.09636-1</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> DETERGENTE DESINCRUSTANTE ÁCIDO RENOVA</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.355739/2021-30</t>
+          <t xml:space="preserve"> 25351.076890/2022-95</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0227.1031.004-5</t>
+          <t xml:space="preserve"> 3.9636.0004.003-1</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -5717,7 +5707,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAVANDA + FRASCO DE PLASTICO OPACO SQUEEZE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> ÚNICA + ACONDICIONAMENTO NAO PREVISTO NA TABELA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5727,7 +5717,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5745,32 +5735,32 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> QUÍMICA NOVA ARAÇATUBA INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.09636-1</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> DESENGRAXANTE RENOVA</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.076920/2022-63</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.001-8</t>
+          <t xml:space="preserve"> 3.9636.0005.001-9</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -5780,7 +5770,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EUCALIPTO + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> AZUL + GALAO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -5790,7 +5780,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3103084 DESENGRAXANTE</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -5808,32 +5798,32 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> QUÍMICA NOVA ARAÇATUBA INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.09636-1</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> DESENGRAXANTE RENOVA</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.076920/2022-63</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.002-6</t>
+          <t xml:space="preserve"> 3.9636.0005.002-7</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -5843,7 +5833,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EUCALIPTO + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> AZUL + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -5853,7 +5843,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3103084 DESENGRAXANTE</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -5871,32 +5861,32 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> QUÍMICA NOVA ARAÇATUBA INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.09636-1</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> DESENGRAXANTE RENOVA</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.076920/2022-63</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.003-4</t>
+          <t xml:space="preserve"> 3.9636.0005.003-5</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -5906,7 +5896,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FLORAL + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> AZUL + ACONDICIONAMENTO NAO PREVISTO NA TABELA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -5916,7 +5906,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3103084 DESENGRAXANTE</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -5934,32 +5924,32 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> QUÍMICA NOVA ARAÇATUBA INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.09636-1</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> DESENGRAXANTE RENOVA</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.076920/2022-63</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.004-2</t>
+          <t xml:space="preserve"> 3.9636.0005.004-3</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -5969,7 +5959,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FLORAL + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> VERMELHO + GALAO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5979,7 +5969,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3103084 DESENGRAXANTE</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -5997,32 +5987,32 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> QUÍMICA NOVA ARAÇATUBA INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.09636-1</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> DESENGRAXANTE RENOVA</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.076920/2022-63</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.005-0</t>
+          <t xml:space="preserve"> 3.9636.0005.005-1</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -6032,7 +6022,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HERBAL + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> VERMELHO + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6042,7 +6032,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3103084 DESENGRAXANTE</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -6060,32 +6050,32 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> QUÍMICA NOVA ARAÇATUBA INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.09636-1</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> DESENGRAXANTE RENOVA</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.076920/2022-63</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.006-9</t>
+          <t xml:space="preserve"> 3.9636.0005.006-1</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -6095,7 +6085,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HERBAL + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> VERMELHO + ACONDICIONAMENTO NAO PREVISTO NA TABELA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6105,7 +6095,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3103084 DESENGRAXANTE</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -6123,32 +6113,32 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> QUÍMICA NOVA ARAÇATUBA INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.09636-1</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> DESENGRAXANTE RENOVA</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.076920/2022-63</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.007-7</t>
+          <t xml:space="preserve"> 3.9636.0005.007-8</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -6158,7 +6148,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JASMIM + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> AMARELO + GALAO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6168,7 +6158,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3103084 DESENGRAXANTE</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -6186,32 +6176,32 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> QUÍMICA NOVA ARAÇATUBA INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.09636-1</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> DESENGRAXANTE RENOVA</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.076920/2022-63</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.008-5</t>
+          <t xml:space="preserve"> 3.9636.0005.008-6</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -6221,7 +6211,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JASMIM + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> AMARELO + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6231,7 +6221,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3103084 DESENGRAXANTE</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -6249,32 +6239,32 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> QUÍMICA NOVA ARAÇATUBA INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.09636-1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> DESENGRAXANTE RENOVA</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.076920/2022-63</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.009-3</t>
+          <t xml:space="preserve"> 3.9636.0005.009-4</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -6284,7 +6274,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAVANDA + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> AMARELO + ACONDICIONAMENTO NAO PREVISTO NA TABELA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6294,7 +6284,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3103084 DESENGRAXANTE</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -6312,27 +6302,27 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> RECKITT BENCKISER (BRASIL) LTDA</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.00227-0</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> VANISH OXI ACTION PREMIUM GEL</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.267120/2021-79</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.010-7</t>
+          <t xml:space="preserve"> 000</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -6340,14 +6330,9 @@
           <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 02/2032</t>
-        </is>
-      </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAVANDA + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6357,12 +6342,12 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222049 DESINFETANTE PARA TECIDOS E ROUPAS</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 30014 REG. SANEANTES - Desistência de petição/processo a pedido</t>
         </is>
       </c>
     </row>
@@ -6375,27 +6360,27 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> RECKITT BENCKISER (BRASIL) LTDA</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.00227-0</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> VANISH OXI ACTION PREMIUM GEL</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.267120/2021-79</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.011-5</t>
+          <t xml:space="preserve"> 000</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -6403,14 +6388,9 @@
           <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 02/2032</t>
-        </is>
-      </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MARINE + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6420,12 +6400,12 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222049 DESINFETANTE PARA TECIDOS E ROUPAS</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 30014 REG. SANEANTES - Desistência de petição/processo a pedido</t>
         </is>
       </c>
     </row>
@@ -6438,27 +6418,27 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> RECKITT BENCKISER (BRASIL) LTDA</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.00227-0</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> VEJA GOLD MULTIUSO</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.355739/2021-30</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.012-3</t>
+          <t xml:space="preserve"> 3.0227.1031.001-0</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -6473,7 +6453,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MARINE + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> ORIGINAL + FRASCO DE PLASTICO OPACO SPRAY + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6501,27 +6481,27 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> RECKITT BENCKISER (BRASIL) LTDA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.00227-0</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> VEJA GOLD MULTIUSO</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.355739/2021-30</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.013-1</t>
+          <t xml:space="preserve"> 3.0227.1031.002-9</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -6536,7 +6516,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PINHO + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> CAMPESTRE + FRASCO DE PLASTICO OPACO SQUEEZE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6564,27 +6544,27 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> RECKITT BENCKISER (BRASIL) LTDA</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.00227-0</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> VEJA GOLD MULTIUSO</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.355739/2021-30</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.014-1</t>
+          <t xml:space="preserve"> 3.0227.1031.003-7</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -6599,7 +6579,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PINHO + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FLORAL + FRASCO DE PLASTICO OPACO SQUEEZE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6627,27 +6607,27 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
+          <t xml:space="preserve"> RECKITT BENCKISER (BRASIL) LTDA</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10451-1</t>
+          <t xml:space="preserve"> 3.00227-0</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
+          <t xml:space="preserve"> VEJA GOLD MULTIUSO</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.049216/2022-38</t>
+          <t xml:space="preserve"> 25351.355739/2021-30</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.015-8</t>
+          <t xml:space="preserve"> 3.0227.1031.004-5</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -6662,7 +6642,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TALCO + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> LAVANDA + FRASCO DE PLASTICO OPACO SQUEEZE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -6710,7 +6690,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.016-6</t>
+          <t xml:space="preserve"> 3.0451.0002.001-8</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -6725,7 +6705,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TALCO + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> EUCALIPTO + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6773,7 +6753,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.017-4</t>
+          <t xml:space="preserve"> 3.0451.0002.002-6</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -6788,7 +6768,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TROPICAL + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> EUCALIPTO + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -6816,17 +6796,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00723-3</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -6836,7 +6816,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0451.0002.018-2</t>
+          <t xml:space="preserve"> 3.0451.0002.003-4</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -6851,7 +6831,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TROPICAL + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FLORAL + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -6879,27 +6859,27 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00723-3</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.269693/2018-31</t>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0723.0041.001-1</t>
+          <t xml:space="preserve"> 3.0451.0002.004-2</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -6909,12 +6889,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 08/2028</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FLORAL + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -6929,7 +6909,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -6942,27 +6922,27 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00723-3</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.269693/2018-31</t>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0723.0041.002-1</t>
+          <t xml:space="preserve"> 3.0451.0002.005-0</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -6972,12 +6952,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 08/2028</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> HERBAL + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -6992,7 +6972,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -7005,27 +6985,27 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00723-3</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.269693/2018-31</t>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0723.0041.003-8</t>
+          <t xml:space="preserve"> 3.0451.0002.006-9</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -7035,12 +7015,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 08/2028</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> HERBAL + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -7055,7 +7035,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -7068,27 +7048,27 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00723-3</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.269693/2018-31</t>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0723.0041.004-6</t>
+          <t xml:space="preserve"> 3.0451.0002.007-7</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -7098,12 +7078,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 08/2028</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> JASMIM + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -7118,7 +7098,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -7131,27 +7111,27 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00723-3</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.269693/2018-31</t>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0723.0041.005-4</t>
+          <t xml:space="preserve"> 3.0451.0002.008-5</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -7161,12 +7141,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 08/2028</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> JASMIM + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -7181,7 +7161,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -7194,27 +7174,27 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00723-3</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.269693/2018-31</t>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0723.0041.006-2</t>
+          <t xml:space="preserve"> 3.0451.0002.009-3</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -7224,12 +7204,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 08/2028</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> LAVANDA + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -7244,7 +7224,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -7257,27 +7237,27 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00723-3</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.269693/2018-31</t>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0723.0041.007-0</t>
+          <t xml:space="preserve"> 3.0451.0002.010-7</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -7287,12 +7267,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 08/2028</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> LAVANDA + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -7307,7 +7287,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -7320,27 +7300,27 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00723-3</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.269693/2018-31</t>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0723.0041.008-9</t>
+          <t xml:space="preserve"> 3.0451.0002.011-5</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -7350,12 +7330,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 08/2028</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> MARINE + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -7370,7 +7350,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -7383,27 +7363,27 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00723-3</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.269693/2018-31</t>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0723.0041.009-7</t>
+          <t xml:space="preserve"> 3.0451.0002.012-3</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -7413,12 +7393,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 08/2028</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> MARINE + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7433,7 +7413,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -7446,27 +7426,27 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> UNILEVER BRASIL INDUSTRIAL LTDA</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02066-7</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CAFUNÉ MULTIUSO DESINFETANTE ERVA DOCE</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.269693/2018-31</t>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0723.0041.010-0</t>
+          <t xml:space="preserve"> 3.0451.0002.013-1</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -7476,12 +7456,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 08/2028</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> PINHO + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -7496,7 +7476,7 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -7509,27 +7489,27 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VOFSI QUIMICA PRODUTOS DE LIMPEZA E COSMETICOS EIRELI</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03021-7</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CHLORINE T 2,5 %</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.247633/2020-82</t>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2066.0509.001-5</t>
+          <t xml:space="preserve"> 3.0451.0002.014-1</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -7539,17 +7519,17 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06/2030</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> PINHO + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 Ano(s)</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -7559,7 +7539,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30014 REG. SANEANTES - Desistência de petição/processo a pedido</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -7572,32 +7552,32 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00960-1</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.004344/2022-52</t>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3021.0004.001-4</t>
+          <t xml:space="preserve"> 3.0451.0002.015-8</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -7607,17 +7587,17 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA + FILME PLASTICO</t>
+          <t xml:space="preserve"> TALCO + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -7635,27 +7615,27 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00960-1</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.816253/2018-86</t>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0960.0058.001-6</t>
+          <t xml:space="preserve"> 3.0451.0002.016-6</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -7665,12 +7645,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2029</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> TALCO + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7685,7 +7665,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -7698,27 +7678,27 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00960-1</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.816253/2018-86</t>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0960.0058.002-4</t>
+          <t xml:space="preserve"> 3.0451.0002.017-4</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -7728,12 +7708,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2029</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> TROPICAL + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -7748,7 +7728,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -7761,27 +7741,27 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
+          <t xml:space="preserve"> SEBOLD INDUSTRIA DE COSMETICOS LTDA</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00960-1</t>
+          <t xml:space="preserve"> 3.10451-1</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
+          <t xml:space="preserve"> DESINFETANTE LÍQUIDO SEBOLD CLEAN</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.816253/2018-86</t>
+          <t xml:space="preserve"> 25351.049216/2022-38</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0960.0058.003-2</t>
+          <t xml:space="preserve"> 3.0451.0002.018-2</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -7791,12 +7771,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2029</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> TROPICAL + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -7811,7 +7791,7 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -7824,27 +7804,27 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
+          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00960-1</t>
+          <t xml:space="preserve"> 3.00723-3</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
+          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.816253/2018-86</t>
+          <t xml:space="preserve"> 25351.269693/2018-31</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0960.0058.004-0</t>
+          <t xml:space="preserve"> 3.0723.0041.001-1</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -7854,7 +7834,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2029</t>
+          <t xml:space="preserve"> 08/2028</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -7874,7 +7854,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
         </is>
       </c>
     </row>
@@ -7887,27 +7867,27 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
+          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00960-1</t>
+          <t xml:space="preserve"> 3.00723-3</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
+          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.816253/2018-86</t>
+          <t xml:space="preserve"> 25351.269693/2018-31</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0960.0058.005-9</t>
+          <t xml:space="preserve"> 3.0723.0041.002-1</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -7917,12 +7897,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2029</t>
+          <t xml:space="preserve"> 08/2028</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -7937,7 +7917,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
         </is>
       </c>
     </row>
@@ -7950,27 +7930,27 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
+          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00960-1</t>
+          <t xml:space="preserve"> 3.00723-3</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
+          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.816253/2018-86</t>
+          <t xml:space="preserve"> 25351.269693/2018-31</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0960.0058.006-7</t>
+          <t xml:space="preserve"> 3.0723.0041.003-8</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -7980,7 +7960,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2029</t>
+          <t xml:space="preserve"> 08/2028</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -8000,7 +7980,7 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
         </is>
       </c>
     </row>
@@ -8013,27 +7993,27 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
+          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00960-1</t>
+          <t xml:space="preserve"> 3.00723-3</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
+          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.816253/2018-86</t>
+          <t xml:space="preserve"> 25351.269693/2018-31</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0960.0058.007-5</t>
+          <t xml:space="preserve"> 3.0723.0041.004-6</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -8043,12 +8023,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2029</t>
+          <t xml:space="preserve"> 08/2028</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -8063,7 +8043,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
         </is>
       </c>
     </row>
@@ -8076,27 +8056,27 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
+          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00960-1</t>
+          <t xml:space="preserve"> 3.00723-3</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
+          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.816253/2018-86</t>
+          <t xml:space="preserve"> 25351.269693/2018-31</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0960.0058.008-3</t>
+          <t xml:space="preserve"> 3.0723.0041.005-4</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -8106,7 +8086,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2029</t>
+          <t xml:space="preserve"> 08/2028</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -8126,7 +8106,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
         </is>
       </c>
     </row>
@@ -8139,27 +8119,27 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
+          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00960-1</t>
+          <t xml:space="preserve"> 3.00723-3</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
+          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.816253/2018-86</t>
+          <t xml:space="preserve"> 25351.269693/2018-31</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0960.0058.009-1</t>
+          <t xml:space="preserve"> 3.0723.0041.006-2</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -8169,12 +8149,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2029</t>
+          <t xml:space="preserve"> 08/2028</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -8189,7 +8169,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
         </is>
       </c>
     </row>
@@ -8202,27 +8182,27 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
+          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00960-1</t>
+          <t xml:space="preserve"> 3.00723-3</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
+          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.816253/2018-86</t>
+          <t xml:space="preserve"> 25351.269693/2018-31</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0960.0058.010-5</t>
+          <t xml:space="preserve"> 3.0723.0041.007-0</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -8232,7 +8212,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2029</t>
+          <t xml:space="preserve"> 08/2028</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -8252,7 +8232,7 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
         </is>
       </c>
     </row>
@@ -8265,27 +8245,27 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
+          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00960-1</t>
+          <t xml:space="preserve"> 3.00723-3</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
+          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.816253/2018-86</t>
+          <t xml:space="preserve"> 25351.269693/2018-31</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0960.0058.011-3</t>
+          <t xml:space="preserve"> 3.0723.0041.008-9</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -8295,12 +8275,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2029</t>
+          <t xml:space="preserve"> 08/2028</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -8315,7 +8295,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
         </is>
       </c>
     </row>
@@ -8328,55 +8308,1126 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
+          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.00723-3</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.269693/2018-31</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0723.0041.009-7</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 08/2028</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SUN PRODUTOS QUÍMICOS LTDA</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.00723-3</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFENTANTE CASA&amp;CARINHO</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.269693/2018-31</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0723.0041.010-0</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 08/2028</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNILEVER BRASIL INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.02066-7</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CAFUNÉ MULTIUSO DESINFETANTE ERVA DOCE</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.247604/2020-11</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2066.0507.001-4</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 05/2030</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 Ano(s)</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30014 REG. SANEANTES - Desistência de petição/processo a pedido</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNILEVER BRASIL INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.02066-7</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CAFUNÉ DESINFETANTE CONCENTRADO ERVA DOCE</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.247633/2020-82</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2066.0509.001-5</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 06/2030</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 Ano(s)</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30014 REG. SANEANTES - Desistência de petição/processo a pedido</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VOFSI QUIMICA PRODUTOS DE LIMPEZA E COSMETICOS EIRELI</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03021-7</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHLORINE T 2,5 %</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.004341/2022-19</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3021.0003.001-9</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHLORINE T 2,5% + BOMBONA PLASTICA + FILME PLASTICO</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VOFSI QUIMICA PRODUTOS DE LIMPEZA E COSMETICOS EIRELI</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03021-7</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHLORINE T 1%</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.004344/2022-52</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3021.0004.001-4</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA + FILME PLASTICO</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
           <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3.00960-1</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="D134" t="inlineStr">
         <is>
           <t xml:space="preserve"> DESINFETANTE ZUPP</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t xml:space="preserve"> 25351.816253/2018-86</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="F134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0960.0058.001-6</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2029</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.00960-1</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.816253/2018-86</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0960.0058.002-4</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2029</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.00960-1</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.816253/2018-86</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0960.0058.003-2</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2029</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.00960-1</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.816253/2018-86</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0960.0058.004-0</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2029</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.00960-1</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.816253/2018-86</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0960.0058.005-9</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2029</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.00960-1</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.816253/2018-86</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0960.0058.006-7</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2029</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.00960-1</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.816253/2018-86</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0960.0058.007-5</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2029</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.00960-1</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.816253/2018-86</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0960.0058.008-3</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2029</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.00960-1</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.816253/2018-86</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0960.0058.009-1</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2029</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.00960-1</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.816253/2018-86</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0960.0058.010-5</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2029</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.00960-1</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.816253/2018-86</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0960.0058.011-3</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2029</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 522, DE 17 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZUPPANI INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.00960-1</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE ZUPP</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.816253/2018-86</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3.0960.0058.012-1</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
+      <c r="G145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
         <is>
           <t xml:space="preserve"> 03/2029</t>
         </is>
       </c>
-      <c r="I128" t="inlineStr">
+      <c r="I145" t="inlineStr">
         <is>
           <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
-      <c r="J128" t="inlineStr">
+      <c r="J145" t="inlineStr">
         <is>
           <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="K145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
         <is>
           <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
